--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_185.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_185.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.08, 45.38)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(39.02, 47.12)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:11.500000', '0:00:37.580000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:41.920000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1094164456233422</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2491694352159468</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[['G:maj', 'C:maj', 'G/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2678571428571428</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.14, 7.7), (2.3, 9.88)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.9, 15.82), (8.18, 18.18)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1655405405405405</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['Eb', 'Bb', 'Eb'], ['Bb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:04.139886', '0:01:11.001383'), ('0:01:00.761383', '0:01:09.294716')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1943181818181818</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
-        </is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08488372093023255</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
+          <t>[['G', 'D/3', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(218.68, 226.54), (52.58, 58.92)]</t>
+          <t>[['F:maj/A', 'C:maj/G', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83), (9.91, 14.0)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:14.414000', '0:00:17.044000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:27.920000', '0:00:30.020000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4363636363636363</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(65.28, 74.48)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.2, 24.06)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1289473684210526</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['B', 'E', 'E'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B', 'E', 'E'], ['E', 'A', 'E']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.717755, 26.14043), (2.676666, 13.717755), (6.357029, 23.632675)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.840929, 37.216349), (14.402743, 18.779705), (32.920657, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.08, 45.38)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(33.14, 39.82)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.58, 17.96)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(20.56, 48.7)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.4, 18.96)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.8, 54.3)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.66, 13.28)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.14, 16.46)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1769041769041769</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04), (9.4, 16.5)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (33.48, 42.01)]</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.119815668202765</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'A:7', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(64.871315, 72.777709)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.64, 24.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
